--- a/M06/Files/5003應收帳款銷帳.xlsx
+++ b/M06/Files/5003應收帳款銷帳.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <x:si>
     <x:t>會員</x:t>
   </x:si>
@@ -100,21 +100,6 @@
     <x:t>4712782641246-蕃茄汁鯖魚(3入組)</x:t>
   </x:si>
   <x:si>
-    <x:t>202309200004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630315-梅有精神-90g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631527-台灣梅500g-原味Q梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631534-台灣梅500g-茶梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631541-台灣梅500g-紫蘇梅</x:t>
-  </x:si>
-  <x:si>
     <x:t>宅及便</x:t>
   </x:si>
   <x:si>
@@ -127,43 +112,160 @@
     <x:t>免稅</x:t>
   </x:si>
   <x:si>
-    <x:t>水里商工</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309230001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200070020700-龍眼蜜700公克-黃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200070050600-荔枝蜜700公克-黃</x:t>
-  </x:si>
-  <x:si>
     <x:t>宅急便</x:t>
   </x:si>
   <x:si>
-    <x:t>202308290003</x:t>
+    <x:t>202309210001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630797-梅精糖180g黑人頭袋裝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202309270001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630858-久時釀-白曝油</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630865-久時釀-醬油露</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310170002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630841-蜜梅罐裝-簡單生活</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310230002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310270001</x:t>
   </x:si>
   <x:si>
     <x:t>4710958630735-梅精酵素丸</x:t>
   </x:si>
   <x:si>
-    <x:t>202308290004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630858-久時釀-白曝油</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309050001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630070-台灣梅200g-甜菊梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630728-麻吉梅粉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630797-梅精糖180g黑人頭袋裝</x:t>
+    <x:t>202311070003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>會務股</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310020002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632142-烏梅子醬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310020003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632166-佐梅香3入禮盒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310060001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958630902-水禮白曝油麵線禮盒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631640-水禮熟梅藏香禮盒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310110001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710973350014-俏皮鴨-中</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710973350038-俏皮鴨-大</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711379001029-醜小鴨洗碗精4L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713713000019-雙龍--ｓ洗廁劑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0002009060016-擦手紙(掃地大姊)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710314226572-愛地潔清潔(掃地大姊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00860056-實心清潔袋(掃地大姊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310150001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000000000030-瑞興長秈糙米3kg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631152-水里鄉農會-中菇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632227-一口紫蘇梅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712978369039-草屯農高纖穀糧(十穀米)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310160001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710450903870-富里鄉福猩米餅-海鹽風味</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710450903887-富里鄉福猩米餅-玉米濃湯風味</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711137970178-魚池阿薩姆小茶餅(原味)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712702410860-魚池日月潭紅茶餅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310310001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632319-黑瑪卡鹿茸飲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310310002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710403123416-麥茶包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310310003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311030002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711137979690-魚池阿薩姆紅茶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311030004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710084212041-噴效螞蟻殺蟲劑600c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710312030324-紅孔龍600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712425010712-春風抽取衛生紙10小包串</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311040001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4719433000032-58度金門高梁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311060003</x:t>
   </x:si>
   <x:si>
     <x:t>4710958632203-一口Q梅</x:t>
@@ -172,316 +274,127 @@
     <x:t>4710958632210-一口茶梅</x:t>
   </x:si>
   <x:si>
-    <x:t>4710958632227-一口紫蘇梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309050002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630209-梅子醬油膏(大)500ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630995-梅子醬油膏(小)250ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713327269123-埔農-美人腿泡麵(牛肉)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713327269222-埔農-美人腿泡麵(肉燥)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713327275537-埔農-美人腿泡麵(素食)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309110001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630544-梅精糖150g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309150001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309210001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>會務股</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202307070002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711046199028-台塑賞心垃圾帶</x:t>
+    <x:t>4712927090137-淡水區農會-滬尾南瓜起士餅乾</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311060004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0002009060023-大捲筒廁紙(掃地大姊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311100002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710043029291-桂格養氣人蔘-無糖</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311130003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>推廣股</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202309140004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632197-佐梅香(烏梅+梅醋)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202309250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202309280002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713381120071-去刺虱目魚肚XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713648203165-午仔魚一夜干</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713648202953-金目鱸魚片</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4713648202755-石斑魚(小)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310020001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632173-佐梅香(熟梅+烏梅)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310060003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958632180-佐梅香(熟梅+梅醋)</x:t>
   </x:si>
   <x:si>
     <x:t>4714127971612-竹炭水-小</x:t>
   </x:si>
   <x:si>
-    <x:t>202308040003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200080770018-二坪枝仔冰18元</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200080770015-二坪枝仔冰15元</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200080770025-二坪枝仔冰25元</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308070005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710314226572-愛地潔清潔(掃地大姊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308090001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710973350038-俏皮鴨-大</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308170002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710973350083-俏皮鴨垃圾袋-小</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308230002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0002009060023-大捲筒廁紙(掃地大姊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308250003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4712425010712-春風抽取衛生紙10小包串</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308260001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710015115007-關山米乖乖奶油椰子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630865-久時釀-醬油露</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4712070722015-霧峰香米-5kg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4712120781566-可樂果米穀酥-蒜味</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713108530619-地瓜酥片</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711588347062-台灣啤酒金牌6入組</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308270002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308270003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630384-享受梅醋180ml(蜂蜜)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631459-隨手包-Q梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631732-隨手包-梅之肉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958632166-佐梅香3入禮盒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4714127971605-禾風竹炭水(大)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200070020180-龍眼蜜130公克-黃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308290005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308300004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4712162000069-花蓮市農會-花蓮米2kg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4713469171032-彌陀漁會思慕小魚薯薯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4719862280012-黑糖</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710422607430-雲農純葵花油1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>031200499752-優鮮沛蔓越莓汁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309030001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711137970529-初見-組合茶包(紅玉+阿薩姆)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711198820016-黃金脆蒜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4717202230017-化核果子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4717202230314-紅葡萄李</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309060001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630537-梅精糖180g(盒)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309070002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309070003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710450903887-富里鄉福猩米餅-玉米濃湯風味</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309120002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710403123416-麥茶包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309140003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958632197-佐梅香(烏梅+梅醋)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309180003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20200060010090-愛玉子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958632319-黑瑪卡鹿茸飲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309180004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309200005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>推廣股</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202305060002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202305120004</x:t>
+    <x:t>202310170001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311100001</x:t>
   </x:si>
   <x:si>
     <x:t>4710958631039-水禮梅子醬油麵線禮盒</x:t>
   </x:si>
   <x:si>
-    <x:t>202305170001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631350-盧班長南薑脆梅(罐)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202305300001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958632142-烏梅子醬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958632159-熟梅藏香(盒裝)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202307190007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202307210001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958632173-佐梅香(熟梅+烏梅)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4714469202061-台灣飲料杯(厚)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202307290002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308100001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308170001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958630407-書香梅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631022-水禮苦茶油麵線禮盒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309140004</x:t>
+    <x:t>202311140001</x:t>
   </x:si>
   <x:si>
     <x:t>鵝肉大王</x:t>
   </x:si>
   <x:si>
-    <x:t>202308080001</x:t>
+    <x:t>202310130001</x:t>
   </x:si>
   <x:si>
     <x:t>4710008314158-金味王1.6 kg 醬油</x:t>
   </x:si>
   <x:si>
+    <x:t>4710046021100-工研烏醋６００</x:t>
+  </x:si>
+  <x:si>
     <x:t>4711588200237-酒瓶</x:t>
   </x:si>
   <x:si>
+    <x:t>4711588311025-台酒金牌(玻)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310300002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710046011101-工研大白酢600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311130002</x:t>
+  </x:si>
+  <x:si>
     <x:t>4711588210403-台酒台啤-瓶裝</x:t>
   </x:si>
   <x:si>
-    <x:t>4711588311025-台酒金牌(玻)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308300003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710046021100-工研烏醋６００</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309200003</x:t>
-  </x:si>
-  <x:si>
     <x:t>明潭發電廠職工福利社</x:t>
   </x:si>
   <x:si>
-    <x:t>202308020001</x:t>
+    <x:t>202310230001</x:t>
   </x:si>
   <x:si>
     <x:t>4711588210106-台酒紹興酒</x:t>
   </x:si>
   <x:si>
-    <x:t>202309130001</x:t>
+    <x:t>水里鄉公所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311110002</x:t>
   </x:si>
   <x:si>
     <x:t>上安辦事處</x:t>
   </x:si>
   <x:si>
-    <x:t>202309070001</x:t>
+    <x:t>202311030003</x:t>
   </x:si>
   <x:si>
     <x:t>0002009118021-瑞興米7kg</x:t>
@@ -490,55 +403,64 @@
     <x:t>0002009118022-瑞興米14公斤</x:t>
   </x:si>
   <x:si>
+    <x:t>074261040310-極品香菇素蠔油</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710043020908-得意五珍寶調和油</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710043102017-澳洲細燕麥片</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710043552065-得意一天葵花油</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710088460196-四季醬油非基改釀造醬油1.6k</x:t>
+  </x:si>
+  <x:si>
     <x:t>4710450010110-富麗米10公斤</x:t>
   </x:si>
   <x:si>
-    <x:t>202309200001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309200002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710043029437-桂格大燕麥-雙認證</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710094045301-白蘭強效4.25洗衣粉</x:t>
+    <x:t>4710685443837-龜甲萬甘醇醬油</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202311060001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710084112020-噴效油性殺蟲劑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710084212010-噴效水性６００００</x:t>
   </x:si>
   <x:si>
     <x:t>供銷部</x:t>
   </x:si>
   <x:si>
-    <x:t>202308100002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308100003</x:t>
+    <x:t>202310030001</x:t>
   </x:si>
   <x:si>
     <x:t>4711213677489-邦尼熊抽取衛生紙</x:t>
   </x:si>
   <x:si>
-    <x:t>202308220002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202308230001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023000000990-天香普渡組合990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309080001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710958631145-水里鄉農會-大菇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309120003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710423869974-萬丹紅豆湯12罐裝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202309220001</x:t>
+    <x:t>202310180001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310190004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310270002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631817-上坪林咖啡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631848-三部咖啡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310300001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631831-六路咖啡</x:t>
   </x:si>
   <x:si>
     <x:t>南投縣水里鄉農會-信用部</x:t>
@@ -547,7 +469,19 @@
     <x:t>202309120004</x:t>
   </x:si>
   <x:si>
-    <x:t>4710084212010-噴效水性６００００</x:t>
+    <x:t>202310170003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4711155634052-蜜汁豬肉乾-隨手包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712070724347-香米鍋粑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310170004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710958631176-烏梅子醬禮盒</x:t>
   </x:si>
   <x:si>
     <x:t>會計股</x:t>
@@ -559,40 +493,16 @@
     <x:t>4710958631572-水里紅茶蛋捲禮盒</x:t>
   </x:si>
   <x:si>
-    <x:t>4712070724347-香米鍋粑</x:t>
+    <x:t>自然屋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202310310004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20200090450500-葡萄</x:t>
   </x:si>
   <x:si>
     <x:t>真梅館</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202305040003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711542291028-貳砂糖600(真梅館</x:t>
-  </x:si>
-  <x:si>
-    <x:t>471073066525-十全香油510g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202305120003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202305240002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202307050002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710084212041-噴效螞蟻殺蟲劑600c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710312030324-紅孔龍600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202307310002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4711379001043-醜小鴨洗潔精5公升</x:t>
   </x:si>
   <x:si>
     <x:t>202308290002</x:t>
@@ -960,7 +870,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:L163"/>
+  <x:dimension ref="A1:L133"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1509,13 +1419,13 @@
     </x:row>
     <x:row r="15" spans="1:12">
       <x:c r="A15" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C15" s="2">
-        <x:v>45189</x:v>
+        <x:v>45187</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>0</x:v>
@@ -1524,16 +1434,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>6448</x:v>
+        <x:v>2500</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>595</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
         <x:v>10</x:v>
@@ -1542,18 +1452,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L15" s="0" t="n">
-        <x:v>5950</x:v>
+        <x:v>2500</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
       <x:c r="A16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C16" s="2">
-        <x:v>45189</x:v>
+        <x:v>45190</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
         <x:v>0</x:v>
@@ -1562,36 +1472,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>6448</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L16" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:12">
       <x:c r="A17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C17" s="2">
-        <x:v>45189</x:v>
+        <x:v>45196</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>0</x:v>
@@ -1600,36 +1510,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>6448</x:v>
+        <x:v>3240</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L17" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>1320</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:12">
       <x:c r="A18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C18" s="2">
-        <x:v>45189</x:v>
+        <x:v>45196</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>0</x:v>
@@ -1638,36 +1548,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>6448</x:v>
+        <x:v>3240</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L18" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>1920</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:12">
       <x:c r="A19" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C19" s="2">
-        <x:v>45187</x:v>
+        <x:v>45216</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
         <x:v>0</x:v>
@@ -1676,36 +1586,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>1170</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L19" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>1170</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:12">
       <x:c r="A20" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C20" s="2">
-        <x:v>45192</x:v>
+        <x:v>45222</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
         <x:v>0</x:v>
@@ -1714,36 +1624,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>17340</x:v>
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
-        <x:v>595</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L20" s="0" t="n">
-        <x:v>10115</x:v>
+        <x:v>3000</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:12">
       <x:c r="A21" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C21" s="2">
-        <x:v>45192</x:v>
+        <x:v>45226</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>0</x:v>
@@ -1752,36 +1662,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>17340</x:v>
+        <x:v>2800</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
-        <x:v>425</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L21" s="0" t="n">
-        <x:v>7225</x:v>
+        <x:v>2800</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:12">
       <x:c r="A22" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C22" s="2">
-        <x:v>45167</x:v>
+        <x:v>45237</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>0</x:v>
@@ -1790,36 +1700,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>4200</x:v>
+        <x:v>2640</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J22" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L22" s="0" t="n">
-        <x:v>4200</x:v>
+        <x:v>2640</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:12">
       <x:c r="A23" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C23" s="2">
-        <x:v>45167</x:v>
+        <x:v>45201</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>0</x:v>
@@ -1828,36 +1738,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>3080</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L23" s="0" t="n">
-        <x:v>3080</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:12">
       <x:c r="A24" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C24" s="2">
-        <x:v>45174</x:v>
+        <x:v>45201</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>0</x:v>
@@ -1866,36 +1776,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>3068</x:v>
+        <x:v>2920</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>390</x:v>
+        <x:v>2920</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:12">
       <x:c r="A25" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C25" s="2">
-        <x:v>45174</x:v>
+        <x:v>45205</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>0</x:v>
@@ -1904,36 +1814,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>3068</x:v>
+        <x:v>3120</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L25" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>1440</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:12">
       <x:c r="A26" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C26" s="2">
-        <x:v>45174</x:v>
+        <x:v>45205</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -1942,36 +1852,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>3068</x:v>
+        <x:v>3120</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L26" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>1680</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:12">
       <x:c r="A27" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C27" s="2">
-        <x:v>45174</x:v>
+        <x:v>45210</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>0</x:v>
@@ -1980,36 +1890,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>3068</x:v>
+        <x:v>8458</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L27" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:12">
       <x:c r="A28" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C28" s="2">
-        <x:v>45174</x:v>
+        <x:v>45210</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
         <x:v>0</x:v>
@@ -2018,36 +1928,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>3068</x:v>
+        <x:v>8458</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J28" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L28" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:12">
       <x:c r="A29" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C29" s="2">
-        <x:v>45174</x:v>
+        <x:v>45210</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
         <x:v>0</x:v>
@@ -2056,36 +1966,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>3068</x:v>
+        <x:v>8458</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J29" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L29" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:12">
       <x:c r="A30" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C30" s="2">
-        <x:v>45174</x:v>
+        <x:v>45210</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>0</x:v>
@@ -2094,36 +2004,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>5400</x:v>
+        <x:v>8458</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J30" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L30" s="0" t="n">
-        <x:v>3600</x:v>
+        <x:v>456</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:12">
       <x:c r="A31" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C31" s="2">
-        <x:v>45174</x:v>
+        <x:v>45210</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>0</x:v>
@@ -2132,36 +2042,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>5400</x:v>
+        <x:v>8458</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L31" s="0" t="n">
-        <x:v>900</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:12">
       <x:c r="A32" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C32" s="2">
-        <x:v>45174</x:v>
+        <x:v>45210</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
         <x:v>0</x:v>
@@ -2170,13 +2080,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>5400</x:v>
+        <x:v>8458</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
         <x:v>15</x:v>
@@ -2188,18 +2098,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L32" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>2312</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:12">
       <x:c r="A33" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C33" s="2">
-        <x:v>45174</x:v>
+        <x:v>45210</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
         <x:v>0</x:v>
@@ -2208,36 +2118,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>5400</x:v>
+        <x:v>8458</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L33" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>3840</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:12">
       <x:c r="A34" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C34" s="2">
-        <x:v>45174</x:v>
+        <x:v>45214</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
         <x:v>0</x:v>
@@ -2246,36 +2156,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>5400</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L34" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:12">
       <x:c r="A35" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C35" s="2">
-        <x:v>45180</x:v>
+        <x:v>45214</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
         <x:v>0</x:v>
@@ -2287,33 +2197,33 @@
         <x:v>1800</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:12">
       <x:c r="A36" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C36" s="2">
-        <x:v>45180</x:v>
+        <x:v>45214</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
         <x:v>0</x:v>
@@ -2325,33 +2235,33 @@
         <x:v>1800</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L36" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>790</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:12">
       <x:c r="A37" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C37" s="2">
-        <x:v>45184</x:v>
+        <x:v>45214</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>0</x:v>
@@ -2360,36 +2270,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>5280</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L37" s="0" t="n">
-        <x:v>5280</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:12">
       <x:c r="A38" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C38" s="2">
-        <x:v>45190</x:v>
+        <x:v>45214</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>0</x:v>
@@ -2398,36 +2308,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>540</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L38" s="0" t="n">
-        <x:v>540</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:12">
       <x:c r="A39" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C39" s="2">
-        <x:v>45114</x:v>
+        <x:v>45215</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>0</x:v>
@@ -2436,36 +2346,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>1425</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L39" s="0" t="n">
-        <x:v>225</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:12">
       <x:c r="A40" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C40" s="2">
-        <x:v>45114</x:v>
+        <x:v>45215</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>0</x:v>
@@ -2474,36 +2384,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>1425</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L40" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:12">
       <x:c r="A41" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C41" s="2">
-        <x:v>45142</x:v>
+        <x:v>45215</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>0</x:v>
@@ -2512,13 +2422,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>1028</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
         <x:v>15</x:v>
@@ -2530,18 +2440,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L41" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:12">
       <x:c r="A42" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C42" s="2">
-        <x:v>45142</x:v>
+        <x:v>45215</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>0</x:v>
@@ -2550,36 +2460,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>1028</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L42" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:12">
       <x:c r="A43" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C43" s="2">
-        <x:v>45142</x:v>
+        <x:v>45230</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
         <x:v>0</x:v>
@@ -2588,13 +2498,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>1028</x:v>
+        <x:v>2960</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
         <x:v>15</x:v>
@@ -2606,18 +2516,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L43" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>2960</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:12">
       <x:c r="A44" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C44" s="2">
-        <x:v>45142</x:v>
+        <x:v>45230</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>0</x:v>
@@ -2626,74 +2536,74 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>1028</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L44" s="0" t="n">
-        <x:v>390</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:12">
       <x:c r="A45" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C45" s="2">
+        <x:v>45230</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="n">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C45" s="2">
-        <x:v>45142</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E45" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F45" s="0" t="n">
-        <x:v>1028</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L45" s="0" t="n">
-        <x:v>540</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:12">
       <x:c r="A46" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C46" s="2">
-        <x:v>45145</x:v>
+        <x:v>45230</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>0</x:v>
@@ -2702,36 +2612,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>1156</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>289</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L46" s="0" t="n">
-        <x:v>1156</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:12">
       <x:c r="A47" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C47" s="2">
-        <x:v>45147</x:v>
+        <x:v>45230</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>0</x:v>
@@ -2740,36 +2650,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L47" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:12">
       <x:c r="A48" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C48" s="2">
-        <x:v>45155</x:v>
+        <x:v>45230</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
@@ -2778,36 +2688,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L48" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:12">
       <x:c r="A49" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C49" s="2">
-        <x:v>45161</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>0</x:v>
@@ -2816,36 +2726,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>2720</x:v>
+        <x:v>2350</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>680</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L49" s="0" t="n">
-        <x:v>2720</x:v>
+        <x:v>1050</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:12">
       <x:c r="A50" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C50" s="2">
-        <x:v>45163</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
         <x:v>0</x:v>
@@ -2854,36 +2764,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>2350</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L50" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:12">
       <x:c r="A51" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C51" s="2">
-        <x:v>45164</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
         <x:v>0</x:v>
@@ -2892,36 +2802,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>2350</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L51" s="0" t="n">
-        <x:v>1450</x:v>
+        <x:v>700</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:12">
       <x:c r="A52" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C52" s="2">
-        <x:v>45164</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>0</x:v>
@@ -2930,36 +2840,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L52" s="0" t="n">
-        <x:v>1950</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:12">
       <x:c r="A53" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C53" s="2">
-        <x:v>45164</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
         <x:v>0</x:v>
@@ -2968,36 +2878,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J53" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L53" s="0" t="n">
-        <x:v>5400</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:12">
       <x:c r="A54" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C54" s="2">
-        <x:v>45164</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>0</x:v>
@@ -3006,36 +2916,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>340</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>17000</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:12">
       <x:c r="A55" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="C55" s="2">
-        <x:v>45164</x:v>
+        <x:v>45234</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>0</x:v>
@@ -3044,36 +2954,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J55" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>1160</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:12">
       <x:c r="A56" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C56" s="2">
-        <x:v>45164</x:v>
+        <x:v>45236</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
@@ -3082,36 +2992,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L56" s="0" t="n">
-        <x:v>1960</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:12">
       <x:c r="A57" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C57" s="2">
-        <x:v>45164</x:v>
+        <x:v>45236</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
@@ -3120,36 +3030,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>1960</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:12">
       <x:c r="A58" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C58" s="2">
-        <x:v>45164</x:v>
+        <x:v>45236</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>0</x:v>
@@ -3158,36 +3068,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L58" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:12">
       <x:c r="A59" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C59" s="2">
-        <x:v>45164</x:v>
+        <x:v>45236</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>0</x:v>
@@ -3196,36 +3106,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>6664</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L59" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>2040</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:12">
       <x:c r="A60" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C60" s="2">
-        <x:v>45164</x:v>
+        <x:v>45236</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
@@ -3234,36 +3144,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>43000</x:v>
+        <x:v>6664</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>174</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="0" t="n">
-        <x:v>8700</x:v>
+        <x:v>4624</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:12">
       <x:c r="A61" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C61" s="2">
-        <x:v>45165</x:v>
+        <x:v>45240</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
@@ -3272,36 +3182,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>960</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>960</x:v>
+        <x:v>720</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:12">
       <x:c r="A62" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C62" s="2">
-        <x:v>45165</x:v>
+        <x:v>45243</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
@@ -3310,13 +3220,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>1223</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
         <x:v>15</x:v>
@@ -3328,18 +3238,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L62" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:12">
       <x:c r="A63" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C63" s="2">
-        <x:v>45165</x:v>
+        <x:v>45243</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
@@ -3348,13 +3258,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>1223</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
         <x:v>15</x:v>
@@ -3366,18 +3276,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:12">
       <x:c r="A64" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C64" s="2">
-        <x:v>45165</x:v>
+        <x:v>45183</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>0</x:v>
@@ -3386,13 +3296,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>1223</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
         <x:v>15</x:v>
@@ -3404,18 +3314,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:12">
       <x:c r="A65" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C65" s="2">
-        <x:v>45165</x:v>
+        <x:v>45194</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>0</x:v>
@@ -3424,13 +3334,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>1223</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>730</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
         <x:v>15</x:v>
@@ -3442,18 +3352,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="0" t="n">
-        <x:v>730</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:12">
       <x:c r="A66" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C66" s="2">
-        <x:v>45165</x:v>
+        <x:v>45197</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
@@ -3462,36 +3372,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>1223</x:v>
+        <x:v>3075</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L66" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>435</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:12">
       <x:c r="A67" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C67" s="2">
-        <x:v>45165</x:v>
+        <x:v>45197</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
@@ -3500,36 +3410,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>1223</x:v>
+        <x:v>3075</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L67" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>800</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:12">
       <x:c r="A68" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="C68" s="2">
-        <x:v>45167</x:v>
+        <x:v>45197</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -3538,36 +3448,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>5100</x:v>
+        <x:v>3075</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L68" s="0" t="n">
-        <x:v>5100</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:12">
       <x:c r="A69" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C69" s="2">
-        <x:v>45168</x:v>
+        <x:v>45197</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
@@ -3576,36 +3486,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>3075</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L69" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>1320</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:12">
       <x:c r="A70" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C70" s="2">
-        <x:v>45168</x:v>
+        <x:v>45201</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>0</x:v>
@@ -3614,36 +3524,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L70" s="0" t="n">
-        <x:v>162</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:12">
       <x:c r="A71" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C71" s="2">
-        <x:v>45168</x:v>
+        <x:v>45205</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
@@ -3652,36 +3562,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>2610</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L71" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:12">
       <x:c r="A72" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C72" s="2">
-        <x:v>45168</x:v>
+        <x:v>45205</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
@@ -3690,36 +3600,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>2610</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L72" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:12">
       <x:c r="A73" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C73" s="2">
-        <x:v>45168</x:v>
+        <x:v>45216</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>0</x:v>
@@ -3728,13 +3638,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
         <x:v>15</x:v>
@@ -3746,18 +3656,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>1460</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:12">
       <x:c r="A74" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C74" s="2">
-        <x:v>45168</x:v>
+        <x:v>45240</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>0</x:v>
@@ -3766,36 +3676,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>1550</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L74" s="0" t="n">
-        <x:v>302</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:12">
       <x:c r="A75" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B75" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C75" s="2">
-        <x:v>45168</x:v>
+        <x:v>45240</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>0</x:v>
@@ -3804,36 +3714,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>1550</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:12">
       <x:c r="A76" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C76" s="2">
-        <x:v>45168</x:v>
+        <x:v>45240</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
         <x:v>0</x:v>
@@ -3842,36 +3752,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>1550</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L76" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:12">
       <x:c r="A77" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C77" s="2">
-        <x:v>45168</x:v>
+        <x:v>45244</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>0</x:v>
@@ -3880,36 +3790,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>4700</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L77" s="0" t="n">
-        <x:v>440</x:v>
+        <x:v>2350</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:12">
       <x:c r="A78" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C78" s="2">
-        <x:v>45168</x:v>
+        <x:v>45244</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
         <x:v>0</x:v>
@@ -3918,36 +3828,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>4700</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L78" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>2350</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:12">
       <x:c r="A79" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B79" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C79" s="2">
-        <x:v>45168</x:v>
+        <x:v>45212</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
         <x:v>0</x:v>
@@ -3956,36 +3866,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>1598</x:v>
+        <x:v>8856</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J79" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L79" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>2616</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:12">
       <x:c r="A80" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C80" s="2">
-        <x:v>45172</x:v>
+        <x:v>45212</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
         <x:v>0</x:v>
@@ -3994,36 +3904,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>1370</x:v>
+        <x:v>8856</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J80" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L80" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:12">
       <x:c r="A81" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B81" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C81" s="2">
-        <x:v>45172</x:v>
+        <x:v>45212</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
         <x:v>0</x:v>
@@ -4032,36 +3942,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>1370</x:v>
+        <x:v>8856</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J81" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>-120</x:v>
       </x:c>
       <x:c r="K81" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L81" s="0" t="n">
-        <x:v>520</x:v>
+        <x:v>-240</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:12">
       <x:c r="A82" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B82" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C82" s="2">
-        <x:v>45172</x:v>
+        <x:v>45212</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
         <x:v>0</x:v>
@@ -4070,36 +3980,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>1370</x:v>
+        <x:v>8856</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J82" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K82" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L82" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>5940</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:12">
       <x:c r="A83" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B83" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C83" s="2">
-        <x:v>45172</x:v>
+        <x:v>45229</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
         <x:v>0</x:v>
@@ -4108,36 +4018,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>1370</x:v>
+        <x:v>6882</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J83" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L83" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>1962</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:12">
       <x:c r="A84" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B84" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C84" s="2">
-        <x:v>45175</x:v>
+        <x:v>45229</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
         <x:v>0</x:v>
@@ -4146,36 +4056,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>2400</x:v>
+        <x:v>6882</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J84" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K84" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L84" s="0" t="n">
-        <x:v>1440</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:12">
       <x:c r="A85" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B85" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C85" s="2">
-        <x:v>45175</x:v>
+        <x:v>45229</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
         <x:v>0</x:v>
@@ -4184,36 +4094,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>2400</x:v>
+        <x:v>6882</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J85" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L85" s="0" t="n">
-        <x:v>960</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:12">
       <x:c r="A86" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B86" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C86" s="2">
-        <x:v>45176</x:v>
+        <x:v>45229</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
         <x:v>0</x:v>
@@ -4222,36 +4132,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>590</x:v>
+        <x:v>6882</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J86" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>-60</x:v>
       </x:c>
       <x:c r="K86" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L86" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>-120</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:12">
       <x:c r="A87" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B87" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C87" s="2">
-        <x:v>45176</x:v>
+        <x:v>45229</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
         <x:v>0</x:v>
@@ -4260,36 +4170,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>590</x:v>
+        <x:v>6882</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J87" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L87" s="0" t="n">
-        <x:v>295</x:v>
+        <x:v>3960</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:12">
       <x:c r="A88" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B88" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C88" s="2">
-        <x:v>45176</x:v>
+        <x:v>45243</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
         <x:v>0</x:v>
@@ -4298,36 +4208,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>2010</x:v>
+        <x:v>9288</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J88" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K88" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L88" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>1308</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:12">
       <x:c r="A89" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B89" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C89" s="2">
-        <x:v>45176</x:v>
+        <x:v>45243</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
         <x:v>0</x:v>
@@ -4336,36 +4246,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>2010</x:v>
+        <x:v>9288</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I89" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J89" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>-140</x:v>
       </x:c>
       <x:c r="K89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L89" s="0" t="n">
-        <x:v>900</x:v>
+        <x:v>-280</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:12">
       <x:c r="A90" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B90" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C90" s="2">
-        <x:v>45176</x:v>
+        <x:v>45243</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
         <x:v>0</x:v>
@@ -4374,36 +4284,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F90" s="0" t="n">
-        <x:v>2010</x:v>
+        <x:v>9288</x:v>
       </x:c>
       <x:c r="G90" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H90" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J90" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K90" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L90" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:12">
       <x:c r="A91" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B91" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C91" s="2">
-        <x:v>45176</x:v>
+        <x:v>45243</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
         <x:v>0</x:v>
@@ -4412,36 +4322,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F91" s="0" t="n">
-        <x:v>2010</x:v>
+        <x:v>9288</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H91" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J91" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="K91" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L91" s="0" t="n">
-        <x:v>600</x:v>
+        <x:v>7260</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:12">
       <x:c r="A92" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B92" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C92" s="2">
-        <x:v>45181</x:v>
+        <x:v>45222</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
         <x:v>0</x:v>
@@ -4450,36 +4360,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F92" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>6480</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H92" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J92" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K92" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L92" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>6480</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:12">
       <x:c r="A93" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B93" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C93" s="2">
-        <x:v>45183</x:v>
+        <x:v>45241</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
         <x:v>0</x:v>
@@ -4488,36 +4398,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F93" s="0" t="n">
-        <x:v>940</x:v>
+        <x:v>17630</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H93" s="0" t="n">
-        <x:v>470</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J93" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K93" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L93" s="0" t="n">
-        <x:v>940</x:v>
+        <x:v>17630</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:12">
       <x:c r="A94" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B94" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C94" s="2">
-        <x:v>45187</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
         <x:v>0</x:v>
@@ -4526,36 +4436,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
-        <x:v>4980</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H94" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J94" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K94" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L94" s="0" t="n">
-        <x:v>540</x:v>
+        <x:v>3000</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:12">
       <x:c r="A95" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B95" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C95" s="2">
-        <x:v>45187</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
         <x:v>0</x:v>
@@ -4564,36 +4474,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
-        <x:v>4980</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H95" s="0" t="n">
-        <x:v>1480</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J95" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K95" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L95" s="0" t="n">
-        <x:v>4440</x:v>
+        <x:v>6000</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:12">
       <x:c r="A96" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B96" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C96" s="2">
-        <x:v>45187</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
         <x:v>0</x:v>
@@ -4602,36 +4512,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
-        <x:v>21600</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H96" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J96" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K96" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L96" s="0" t="n">
-        <x:v>7200</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:12">
       <x:c r="A97" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B97" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C97" s="2">
-        <x:v>45187</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
         <x:v>0</x:v>
@@ -4640,36 +4550,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F97" s="0" t="n">
-        <x:v>21600</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G97" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H97" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J97" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K97" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L97" s="0" t="n">
-        <x:v>7000</x:v>
+        <x:v>1290</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:12">
       <x:c r="A98" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B98" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C98" s="2">
-        <x:v>45187</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
         <x:v>0</x:v>
@@ -4678,36 +4588,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F98" s="0" t="n">
-        <x:v>21600</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H98" s="0" t="n">
-        <x:v>1480</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J98" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K98" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L98" s="0" t="n">
-        <x:v>7400</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:12">
       <x:c r="A99" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B99" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C99" s="2">
-        <x:v>45189</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
         <x:v>0</x:v>
@@ -4716,36 +4626,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F99" s="0" t="n">
-        <x:v>420</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H99" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J99" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K99" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L99" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:12">
       <x:c r="A100" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B100" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C100" s="2">
-        <x:v>45189</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
         <x:v>0</x:v>
@@ -4754,36 +4664,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F100" s="0" t="n">
-        <x:v>420</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H100" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J100" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K100" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L100" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:12">
       <x:c r="A101" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B101" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C101" s="2">
-        <x:v>45052</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
         <x:v>0</x:v>
@@ -4792,36 +4702,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H101" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J101" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K101" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L101" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>660</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:12">
       <x:c r="A102" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B102" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C102" s="2">
-        <x:v>45058</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
         <x:v>0</x:v>
@@ -4830,36 +4740,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G102" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H102" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J102" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K102" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L102" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>894</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:12">
       <x:c r="A103" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B103" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="C103" s="2">
-        <x:v>45063</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
         <x:v>0</x:v>
@@ -4868,36 +4778,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
-        <x:v>1895</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G103" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="H103" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J103" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K103" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L103" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>6800</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:12">
       <x:c r="A104" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B104" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="C104" s="2">
-        <x:v>45063</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D104" s="0" t="n">
         <x:v>0</x:v>
@@ -4906,36 +4816,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
-        <x:v>1895</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G104" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H104" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I104" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J104" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K104" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L104" s="0" t="n">
-        <x:v>1715</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:12">
       <x:c r="A105" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B105" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C105" s="2">
-        <x:v>45076</x:v>
+        <x:v>45233</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
         <x:v>0</x:v>
@@ -4944,36 +4854,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>23594</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H105" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J105" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K105" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L105" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:12">
       <x:c r="A106" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B106" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C106" s="2">
-        <x:v>45076</x:v>
+        <x:v>45236</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
         <x:v>0</x:v>
@@ -4982,36 +4892,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>4920</x:v>
       </x:c>
       <x:c r="G106" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H106" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I106" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J106" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K106" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L106" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>1440</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:12">
       <x:c r="A107" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B107" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C107" s="2">
-        <x:v>45126</x:v>
+        <x:v>45236</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
         <x:v>0</x:v>
@@ -5020,36 +4930,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
-        <x:v>690</x:v>
+        <x:v>4920</x:v>
       </x:c>
       <x:c r="G107" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H107" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I107" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J107" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K107" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L107" s="0" t="n">
-        <x:v>690</x:v>
+        <x:v>1560</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:12">
       <x:c r="A108" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B108" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C108" s="2">
-        <x:v>45128</x:v>
+        <x:v>45236</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
         <x:v>0</x:v>
@@ -5058,36 +4968,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
-        <x:v>850</x:v>
+        <x:v>4920</x:v>
       </x:c>
       <x:c r="G108" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H108" s="0" t="n">
-        <x:v>380</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I108" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J108" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K108" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L108" s="0" t="n">
-        <x:v>760</x:v>
+        <x:v>1920</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:12">
       <x:c r="A109" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B109" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C109" s="2">
-        <x:v>45128</x:v>
+        <x:v>45202</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
         <x:v>0</x:v>
@@ -5096,36 +5006,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
-        <x:v>850</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G109" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H109" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I109" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J109" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K109" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L109" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:12">
       <x:c r="A110" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B110" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C110" s="2">
-        <x:v>45136</x:v>
+        <x:v>45217</x:v>
       </x:c>
       <x:c r="D110" s="0" t="n">
         <x:v>0</x:v>
@@ -5134,36 +5044,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="G110" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H110" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I110" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J110" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K110" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L110" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:12">
       <x:c r="A111" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B111" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C111" s="2">
-        <x:v>45148</x:v>
+        <x:v>45218</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
         <x:v>0</x:v>
@@ -5172,13 +5082,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F111" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>2850</x:v>
       </x:c>
       <x:c r="G111" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H111" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="I111" s="0" t="s">
         <x:v>15</x:v>
@@ -5190,18 +5100,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L111" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:12">
       <x:c r="A112" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B112" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C112" s="2">
-        <x:v>45155</x:v>
+        <x:v>45218</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
         <x:v>0</x:v>
@@ -5210,36 +5120,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F112" s="0" t="n">
-        <x:v>1510</x:v>
+        <x:v>2850</x:v>
       </x:c>
       <x:c r="G112" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H112" s="0" t="n">
-        <x:v>370</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="I112" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J112" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K112" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L112" s="0" t="n">
-        <x:v>740</x:v>
+        <x:v>1880</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:12">
       <x:c r="A113" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B113" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C113" s="2">
-        <x:v>45155</x:v>
+        <x:v>45218</x:v>
       </x:c>
       <x:c r="D113" s="0" t="n">
         <x:v>0</x:v>
@@ -5248,13 +5158,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F113" s="0" t="n">
-        <x:v>1510</x:v>
+        <x:v>2850</x:v>
       </x:c>
       <x:c r="G113" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H113" s="0" t="n">
-        <x:v>680</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I113" s="0" t="s">
         <x:v>15</x:v>
@@ -5266,18 +5176,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L113" s="0" t="n">
-        <x:v>680</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:12">
       <x:c r="A114" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B114" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C114" s="2">
-        <x:v>45155</x:v>
+        <x:v>45218</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
         <x:v>0</x:v>
@@ -5286,36 +5196,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>1510</x:v>
+        <x:v>2850</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L114" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:12">
       <x:c r="A115" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B115" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C115" s="2">
-        <x:v>45183</x:v>
+        <x:v>45226</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
         <x:v>0</x:v>
@@ -5324,13 +5234,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F115" s="0" t="n">
-        <x:v>470</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="G115" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H115" s="0" t="n">
-        <x:v>470</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="I115" s="0" t="s">
         <x:v>15</x:v>
@@ -5342,18 +5252,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L115" s="0" t="n">
-        <x:v>470</x:v>
+        <x:v>580</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:12">
       <x:c r="A116" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B116" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C116" s="2">
-        <x:v>45146</x:v>
+        <x:v>45226</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
         <x:v>0</x:v>
@@ -5362,36 +5272,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
-        <x:v>10028</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="G116" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H116" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="I116" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J116" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K116" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L116" s="0" t="n">
-        <x:v>1308</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:12">
       <x:c r="A117" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B117" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C117" s="2">
-        <x:v>45146</x:v>
+        <x:v>45229</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
         <x:v>0</x:v>
@@ -5400,36 +5310,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F117" s="0" t="n">
-        <x:v>10028</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="G117" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H117" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="I117" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J117" s="0" t="n">
-        <x:v>-100</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K117" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L117" s="0" t="n">
-        <x:v>-200</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:12">
       <x:c r="A118" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B118" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C118" s="2">
-        <x:v>45146</x:v>
+        <x:v>45181</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
         <x:v>0</x:v>
@@ -5438,36 +5348,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>10028</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G118" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H118" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I118" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J118" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L118" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:12">
       <x:c r="A119" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B119" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C119" s="2">
-        <x:v>45146</x:v>
+        <x:v>45216</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
         <x:v>0</x:v>
@@ -5476,36 +5386,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
-        <x:v>10028</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="G119" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H119" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I119" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J119" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K119" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L119" s="0" t="n">
-        <x:v>7920</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:12">
       <x:c r="A120" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B120" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C120" s="2">
-        <x:v>45168</x:v>
+        <x:v>45216</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
         <x:v>0</x:v>
@@ -5514,36 +5424,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
-        <x:v>9776</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="G120" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H120" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I120" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J120" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K120" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L120" s="0" t="n">
-        <x:v>2616</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:12">
       <x:c r="A121" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B121" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C121" s="2">
-        <x:v>45168</x:v>
+        <x:v>45216</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
         <x:v>0</x:v>
@@ -5552,36 +5462,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F121" s="0" t="n">
-        <x:v>9776</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H121" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I121" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J121" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K121" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L121" s="0" t="n">
-        <x:v>1080</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:12">
       <x:c r="A122" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B122" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C122" s="2">
-        <x:v>45168</x:v>
+        <x:v>45216</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
         <x:v>0</x:v>
@@ -5590,36 +5500,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
-        <x:v>9776</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="G122" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H122" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I122" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J122" s="0" t="n">
-        <x:v>-100</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K122" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L122" s="0" t="n">
-        <x:v>-200</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:12">
       <x:c r="A123" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B123" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C123" s="2">
-        <x:v>45168</x:v>
+        <x:v>45216</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
         <x:v>0</x:v>
@@ -5628,36 +5538,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F123" s="0" t="n">
-        <x:v>9776</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="G123" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H123" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="I123" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J123" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K123" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L123" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>1160</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:12">
       <x:c r="A124" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B124" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C124" s="2">
-        <x:v>45168</x:v>
+        <x:v>45153</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
         <x:v>0</x:v>
@@ -5666,36 +5576,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>9776</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="G124" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H124" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I124" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L124" s="0" t="n">
-        <x:v>5280</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:12">
       <x:c r="A125" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B125" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C125" s="2">
-        <x:v>45189</x:v>
+        <x:v>45153</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
         <x:v>0</x:v>
@@ -5704,36 +5614,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>11556</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="G125" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H125" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I125" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J125" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K125" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L125" s="0" t="n">
-        <x:v>2616</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:12">
       <x:c r="A126" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B126" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C126" s="2">
-        <x:v>45189</x:v>
+        <x:v>45153</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
         <x:v>0</x:v>
@@ -5742,36 +5652,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>11556</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="G126" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H126" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I126" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J126" s="0" t="n">
-        <x:v>-160</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K126" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L126" s="0" t="n">
-        <x:v>-320</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:12">
       <x:c r="A127" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B127" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C127" s="2">
-        <x:v>45189</x:v>
+        <x:v>45153</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
         <x:v>0</x:v>
@@ -5780,36 +5690,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
-        <x:v>11556</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="G127" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H127" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I127" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J127" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K127" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L127" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:12">
       <x:c r="A128" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B128" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C128" s="2">
-        <x:v>45189</x:v>
+        <x:v>45153</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
         <x:v>0</x:v>
@@ -5818,36 +5728,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
-        <x:v>11556</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="G128" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H128" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I128" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J128" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K128" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L128" s="0" t="n">
-        <x:v>7260</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:12">
       <x:c r="A129" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B129" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C129" s="2">
-        <x:v>45140</x:v>
+        <x:v>45153</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
         <x:v>0</x:v>
@@ -5856,36 +5766,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>12960</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="G129" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H129" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I129" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J129" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K129" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L129" s="0" t="n">
-        <x:v>12960</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:12">
       <x:c r="A130" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B130" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C130" s="2">
-        <x:v>45182</x:v>
+        <x:v>45153</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
         <x:v>0</x:v>
@@ -5894,36 +5804,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>8640</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="G130" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H130" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I130" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J130" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K130" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L130" s="0" t="n">
-        <x:v>8640</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:12">
       <x:c r="A131" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B131" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C131" s="2">
-        <x:v>45176</x:v>
+        <x:v>45153</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
         <x:v>0</x:v>
@@ -5932,36 +5842,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>11720</x:v>
+        <x:v>1030</x:v>
       </x:c>
       <x:c r="G131" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H131" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I131" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J131" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K131" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L131" s="0" t="n">
-        <x:v>3000</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:12">
       <x:c r="A132" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B132" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C132" s="2">
-        <x:v>45176</x:v>
+        <x:v>45230</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
         <x:v>0</x:v>
@@ -5970,36 +5880,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>11720</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="G132" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H132" s="0" t="n">
-        <x:v>600</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="I132" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J132" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K132" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L132" s="0" t="n">
-        <x:v>6000</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:12">
       <x:c r="A133" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B133" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C133" s="2">
-        <x:v>45176</x:v>
+        <x:v>45167</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
         <x:v>0</x:v>
@@ -6008,1164 +5918,24 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>11720</x:v>
+        <x:v>3270</x:v>
       </x:c>
       <x:c r="G133" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H133" s="0" t="n">
-        <x:v>680</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I133" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J133" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K133" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L133" s="0" t="n">
-        <x:v>2720</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="134" spans="1:12">
-      <x:c r="A134" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B134" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C134" s="2">
-        <x:v>45189</x:v>
-      </x:c>
-      <x:c r="D134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F134" s="0" t="n">
-        <x:v>4500</x:v>
-      </x:c>
-      <x:c r="G134" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="H134" s="0" t="n">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="I134" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J134" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L134" s="0" t="n">
-        <x:v>1500</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:12">
-      <x:c r="A135" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B135" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C135" s="2">
-        <x:v>45189</x:v>
-      </x:c>
-      <x:c r="D135" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E135" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F135" s="0" t="n">
-        <x:v>4500</x:v>
-      </x:c>
-      <x:c r="G135" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="H135" s="0" t="n">
-        <x:v>600</x:v>
-      </x:c>
-      <x:c r="I135" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="J135" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K135" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L135" s="0" t="n">
-        <x:v>3000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:12">
-      <x:c r="A136" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B136" s="1" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="C136" s="2">
-        <x:v>45189</x:v>
-      </x:c>
-      <x:c r="D136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F136" s="0" t="n">
-        <x:v>2354</x:v>
-      </x:c>
-      <x:c r="G136" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="H136" s="0" t="n">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I136" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J136" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L136" s="0" t="n">
-        <x:v>618</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:12">
-      <x:c r="A137" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B137" s="1" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="C137" s="2">
-        <x:v>45189</x:v>
-      </x:c>
-      <x:c r="D137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F137" s="0" t="n">
-        <x:v>2354</x:v>
-      </x:c>
-      <x:c r="G137" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="H137" s="0" t="n">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="I137" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J137" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L137" s="0" t="n">
-        <x:v>1400</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="138" spans="1:12">
-      <x:c r="A138" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B138" s="1" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="C138" s="2">
-        <x:v>45189</x:v>
-      </x:c>
-      <x:c r="D138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F138" s="0" t="n">
-        <x:v>2354</x:v>
-      </x:c>
-      <x:c r="G138" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H138" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I138" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J138" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L138" s="0" t="n">
-        <x:v>336</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="139" spans="1:12">
-      <x:c r="A139" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B139" s="1" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="C139" s="2">
-        <x:v>45148</x:v>
-      </x:c>
-      <x:c r="D139" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E139" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F139" s="0" t="n">
-        <x:v>470</x:v>
-      </x:c>
-      <x:c r="G139" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="H139" s="0" t="n">
-        <x:v>470</x:v>
-      </x:c>
-      <x:c r="I139" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J139" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K139" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L139" s="0" t="n">
-        <x:v>470</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="140" spans="1:12">
-      <x:c r="A140" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B140" s="1" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C140" s="2">
-        <x:v>45148</x:v>
-      </x:c>
-      <x:c r="D140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F140" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="G140" s="0" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="H140" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="I140" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J140" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L140" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="141" spans="1:12">
-      <x:c r="A141" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B141" s="1" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C141" s="2">
-        <x:v>45160</x:v>
-      </x:c>
-      <x:c r="D141" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E141" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F141" s="0" t="n">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="G141" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="H141" s="0" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I141" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J141" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K141" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L141" s="0" t="n">
-        <x:v>270</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="142" spans="1:12">
-      <x:c r="A142" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B142" s="1" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="C142" s="2">
-        <x:v>45161</x:v>
-      </x:c>
-      <x:c r="D142" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E142" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F142" s="0" t="n">
-        <x:v>5940</x:v>
-      </x:c>
-      <x:c r="G142" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="H142" s="0" t="n">
-        <x:v>990</x:v>
-      </x:c>
-      <x:c r="I142" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J142" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K142" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L142" s="0" t="n">
-        <x:v>5940</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="143" spans="1:12">
-      <x:c r="A143" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B143" s="1" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C143" s="2">
-        <x:v>45177</x:v>
-      </x:c>
-      <x:c r="D143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F143" s="0" t="n">
-        <x:v>840</x:v>
-      </x:c>
-      <x:c r="G143" s="0" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="H143" s="0" t="n">
-        <x:v>840</x:v>
-      </x:c>
-      <x:c r="I143" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J143" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L143" s="0" t="n">
-        <x:v>840</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="144" spans="1:12">
-      <x:c r="A144" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B144" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="C144" s="2">
-        <x:v>45181</x:v>
-      </x:c>
-      <x:c r="D144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F144" s="0" t="n">
-        <x:v>420</x:v>
-      </x:c>
-      <x:c r="G144" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="H144" s="0" t="n">
-        <x:v>420</x:v>
-      </x:c>
-      <x:c r="I144" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J144" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L144" s="0" t="n">
-        <x:v>420</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="145" spans="1:12">
-      <x:c r="A145" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B145" s="1" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="C145" s="2">
-        <x:v>45191</x:v>
-      </x:c>
-      <x:c r="D145" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E145" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F145" s="0" t="n">
-        <x:v>940</x:v>
-      </x:c>
-      <x:c r="G145" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="H145" s="0" t="n">
-        <x:v>470</x:v>
-      </x:c>
-      <x:c r="I145" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J145" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K145" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L145" s="0" t="n">
-        <x:v>940</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="146" spans="1:12">
-      <x:c r="A146" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B146" s="1" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="C146" s="2">
-        <x:v>45181</x:v>
-      </x:c>
-      <x:c r="D146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F146" s="0" t="n">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="G146" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="H146" s="0" t="n">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I146" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J146" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L146" s="0" t="n">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="147" spans="1:12">
-      <x:c r="A147" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B147" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C147" s="2">
-        <x:v>45153</x:v>
-      </x:c>
-      <x:c r="D147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F147" s="0" t="n">
-        <x:v>1030</x:v>
-      </x:c>
-      <x:c r="G147" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="H147" s="0" t="n">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="I147" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J147" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L147" s="0" t="n">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="148" spans="1:12">
-      <x:c r="A148" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B148" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C148" s="2">
-        <x:v>45153</x:v>
-      </x:c>
-      <x:c r="D148" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E148" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F148" s="0" t="n">
-        <x:v>1030</x:v>
-      </x:c>
-      <x:c r="G148" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H148" s="0" t="n">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="I148" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J148" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K148" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L148" s="0" t="n">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="149" spans="1:12">
-      <x:c r="A149" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B149" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C149" s="2">
-        <x:v>45153</x:v>
-      </x:c>
-      <x:c r="D149" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E149" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F149" s="0" t="n">
-        <x:v>1030</x:v>
-      </x:c>
-      <x:c r="G149" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="H149" s="0" t="n">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="I149" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J149" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K149" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L149" s="0" t="n">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="150" spans="1:12">
-      <x:c r="A150" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B150" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C150" s="2">
-        <x:v>45153</x:v>
-      </x:c>
-      <x:c r="D150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F150" s="0" t="n">
-        <x:v>1030</x:v>
-      </x:c>
-      <x:c r="G150" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H150" s="0" t="n">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="I150" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J150" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L150" s="0" t="n">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="151" spans="1:12">
-      <x:c r="A151" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B151" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C151" s="2">
-        <x:v>45153</x:v>
-      </x:c>
-      <x:c r="D151" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E151" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F151" s="0" t="n">
-        <x:v>1030</x:v>
-      </x:c>
-      <x:c r="G151" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H151" s="0" t="n">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="I151" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J151" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K151" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L151" s="0" t="n">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="152" spans="1:12">
-      <x:c r="A152" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B152" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C152" s="2">
-        <x:v>45153</x:v>
-      </x:c>
-      <x:c r="D152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F152" s="0" t="n">
-        <x:v>1030</x:v>
-      </x:c>
-      <x:c r="G152" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H152" s="0" t="n">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="I152" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J152" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L152" s="0" t="n">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="153" spans="1:12">
-      <x:c r="A153" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B153" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C153" s="2">
-        <x:v>45153</x:v>
-      </x:c>
-      <x:c r="D153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F153" s="0" t="n">
-        <x:v>1030</x:v>
-      </x:c>
-      <x:c r="G153" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H153" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I153" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J153" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L153" s="0" t="n">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="154" spans="1:12">
-      <x:c r="A154" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="B154" s="1" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C154" s="2">
-        <x:v>45153</x:v>
-      </x:c>
-      <x:c r="D154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F154" s="0" t="n">
-        <x:v>1030</x:v>
-      </x:c>
-      <x:c r="G154" s="0" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="H154" s="0" t="n">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="I154" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J154" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L154" s="0" t="n">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="155" spans="1:12">
-      <x:c r="A155" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B155" s="1" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="C155" s="2">
-        <x:v>45050</x:v>
-      </x:c>
-      <x:c r="D155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F155" s="0" t="n">
-        <x:v>2578</x:v>
-      </x:c>
-      <x:c r="G155" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="H155" s="0" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I155" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J155" s="0" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="K155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L155" s="0" t="n">
-        <x:v>1150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="156" spans="1:12">
-      <x:c r="A156" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B156" s="1" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="C156" s="2">
-        <x:v>45050</x:v>
-      </x:c>
-      <x:c r="D156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F156" s="0" t="n">
-        <x:v>2578</x:v>
-      </x:c>
-      <x:c r="G156" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="H156" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="I156" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J156" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L156" s="0" t="n">
-        <x:v>1428</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="157" spans="1:12">
-      <x:c r="A157" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B157" s="1" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="C157" s="2">
-        <x:v>45058</x:v>
-      </x:c>
-      <x:c r="D157" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E157" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F157" s="0" t="n">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="G157" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="H157" s="0" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I157" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J157" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K157" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L157" s="0" t="n">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="158" spans="1:12">
-      <x:c r="A158" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B158" s="1" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="C158" s="2">
-        <x:v>45070</x:v>
-      </x:c>
-      <x:c r="D158" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E158" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F158" s="0" t="n">
-        <x:v>3270</x:v>
-      </x:c>
-      <x:c r="G158" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="H158" s="0" t="n">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I158" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J158" s="0" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="K158" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L158" s="0" t="n">
-        <x:v>3270</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="159" spans="1:12">
-      <x:c r="A159" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B159" s="1" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="C159" s="2">
-        <x:v>45112</x:v>
-      </x:c>
-      <x:c r="D159" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E159" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F159" s="0" t="n">
-        <x:v>293</x:v>
-      </x:c>
-      <x:c r="G159" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="H159" s="0" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I159" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J159" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K159" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L159" s="0" t="n">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="160" spans="1:12">
-      <x:c r="A160" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B160" s="1" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="C160" s="2">
-        <x:v>45112</x:v>
-      </x:c>
-      <x:c r="D160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F160" s="0" t="n">
-        <x:v>293</x:v>
-      </x:c>
-      <x:c r="G160" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="H160" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="I160" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J160" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L160" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="161" spans="1:12">
-      <x:c r="A161" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B161" s="1" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="C161" s="2">
-        <x:v>45138</x:v>
-      </x:c>
-      <x:c r="D161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F161" s="0" t="n">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="G161" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="H161" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="I161" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J161" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L161" s="0" t="n">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="162" spans="1:12">
-      <x:c r="A162" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B162" s="1" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="C162" s="2">
-        <x:v>45138</x:v>
-      </x:c>
-      <x:c r="D162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F162" s="0" t="n">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="G162" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="H162" s="0" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I162" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J162" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L162" s="0" t="n">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="163" spans="1:12">
-      <x:c r="A163" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="B163" s="1" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="C163" s="2">
-        <x:v>45167</x:v>
-      </x:c>
-      <x:c r="D163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F163" s="0" t="n">
-        <x:v>3270</x:v>
-      </x:c>
-      <x:c r="G163" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="H163" s="0" t="n">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I163" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J163" s="0" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="K163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L163" s="0" t="n">
         <x:v>3270</x:v>
       </x:c>
     </x:row>
